--- a/base/z中文配置_client.xlsx
+++ b/base/z中文配置_client.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="1187">
   <si>
     <t>键</t>
   </si>
@@ -3716,6 +3716,57 @@
   <si>
     <t>CN_537</t>
   </si>
+  <si>
+    <t>CN_538</t>
+  </si>
+  <si>
+    <t>下载APP请用游览器打开</t>
+  </si>
+  <si>
+    <t>Download the app, please open it with a browser</t>
+  </si>
+  <si>
+    <t>CN_539</t>
+  </si>
+  <si>
+    <t>CN_540</t>
+  </si>
+  <si>
+    <t>CN_541</t>
+  </si>
+  <si>
+    <t>CN_542</t>
+  </si>
+  <si>
+    <t>CN_543</t>
+  </si>
+  <si>
+    <t>CN_544</t>
+  </si>
+  <si>
+    <t>CN_545</t>
+  </si>
+  <si>
+    <t>CN_546</t>
+  </si>
+  <si>
+    <t>CN_547</t>
+  </si>
+  <si>
+    <t>CN_548</t>
+  </si>
+  <si>
+    <t>CN_549</t>
+  </si>
+  <si>
+    <t>CN_550</t>
+  </si>
+  <si>
+    <t>CN_551</t>
+  </si>
+  <si>
+    <t>CN_552</t>
+  </si>
 </sst>
 </file>
 
@@ -3724,8 +3775,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3762,7 +3813,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3770,22 +3879,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3799,39 +3917,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3854,52 +3941,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3932,7 +3983,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3944,25 +4097,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3980,43 +4145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4028,91 +4157,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4141,6 +4192,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4159,38 +4240,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4216,25 +4276,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4246,10 +4297,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4258,133 +4309,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4800,10 +4851,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D442"/>
+  <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="C354" sqref="C354"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4948,7 +4999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="115.2" spans="1:3">
+    <row r="12" ht="72" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -8336,7 +8387,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="320" ht="86.4" spans="1:3">
+    <row r="320" ht="43.2" spans="1:3">
       <c r="A320" t="s">
         <v>903</v>
       </c>
@@ -8347,7 +8398,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="321" ht="172.8" spans="1:3">
+    <row r="321" ht="72" spans="1:3">
       <c r="A321" t="s">
         <v>906</v>
       </c>
@@ -8369,7 +8420,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="323" ht="144" spans="1:3">
+    <row r="323" ht="72" spans="1:3">
       <c r="A323" t="s">
         <v>912</v>
       </c>
@@ -8391,7 +8442,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="325" ht="100.8" spans="1:3">
+    <row r="325" ht="43.2" spans="1:3">
       <c r="A325" t="s">
         <v>918</v>
       </c>
@@ -9687,6 +9738,87 @@
       </c>
       <c r="C442" s="20" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>1186</v>
       </c>
     </row>
   </sheetData>

--- a/base/z中文配置_client.xlsx
+++ b/base/z中文配置_client.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372"/>
+    <workbookView windowWidth="23040" windowHeight="8687"/>
   </bookViews>
   <sheets>
     <sheet name="中文配置_ClientCn" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1192">
   <si>
     <t>键</t>
   </si>
@@ -1374,7 +1374,7 @@
     <t>CN_245</t>
   </si>
   <si>
-    <t>购买的价格不能大于系统指导价格</t>
+    <t>买单不能低于当天市场价，不能高于当天价格120％</t>
   </si>
   <si>
     <t>The purchase price must not be greater than the system guidance price</t>
@@ -1509,7 +1509,7 @@
     <t>CN_262</t>
   </si>
   <si>
-    <t>KAD买鱼</t>
+    <t>KH买鱼</t>
   </si>
   <si>
     <t>KADPurchase</t>
@@ -2932,7 +2932,7 @@
 二．推广模式
 用户每领养一只动物，团队/直推活跃度加1。
 1.直推收益
-直推下级每增加一个活跃度用户将自动获得100金币，2个加速积分。
+直推每增加一个活跃度用户将自动获得100金币，2个加速积分。
 2.小区收益
 小区活跃度每增加一个，自动获得一个加速积分，一个领养名额。
 三．道具体系
@@ -3729,10 +3729,25 @@
     <t>CN_539</t>
   </si>
   <si>
+    <t>我的挂单</t>
+  </si>
+  <si>
+    <t>My order</t>
+  </si>
+  <si>
     <t>CN_540</t>
   </si>
   <si>
+    <t>所有挂单</t>
+  </si>
+  <si>
+    <t>All order</t>
+  </si>
+  <si>
     <t>CN_541</t>
+  </si>
+  <si>
+    <t>购买的价格不能低于市场指导价格</t>
   </si>
   <si>
     <t>CN_542</t>
@@ -3773,10 +3788,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3812,6 +3827,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -3823,6 +3846,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3841,94 +3879,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3948,9 +3908,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3983,31 +3998,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4019,13 +4028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4043,13 +4052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4061,37 +4064,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4103,19 +4082,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4133,6 +4100,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4140,30 +4179,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4192,17 +4207,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4222,39 +4231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4270,7 +4246,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4289,6 +4295,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4297,10 +4312,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4309,133 +4324,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4853,8 +4868,8 @@
   <sheetPr/>
   <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -9751,74 +9766,98 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
+      <c r="B444" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
+        <v>1176</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
+        <v>1179</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C446" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>1176</v>
+        <v>1181</v>
+      </c>
+      <c r="B447" t="s">
+        <v>434</v>
+      </c>
+      <c r="C447" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>1186</v>
+        <v>1191</v>
       </c>
     </row>
   </sheetData>

--- a/base/z中文配置_client.xlsx
+++ b/base/z中文配置_client.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8687"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="中文配置_ClientCn" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1195">
   <si>
     <t>键</t>
   </si>
@@ -653,7 +653,7 @@
     <t>CN_162</t>
   </si>
   <si>
-    <t>实名验证有误，请检查输入后再尝试</t>
+    <t>实名三要素(身份证、姓名、手机号)不一致，认证失败</t>
   </si>
   <si>
     <t>Real name verification error, please check the input and try again</t>
@@ -1055,7 +1055,7 @@
     <t>CN_210</t>
   </si>
   <si>
-    <t>恭喜获得一条"+"&lt;font color ='0xfff200'&gt;{0}&lt;/font&gt;</t>
+    <t>恭喜获得一条&lt;font color ='0xfff200'&gt;{0}&lt;/font&gt;</t>
   </si>
   <si>
     <t>Congratulations on getting one"+"&lt;font color ='0xfff200'&gt;{0}&lt;/font&gt;</t>
@@ -1572,7 +1572,7 @@
     <t>CN_269</t>
   </si>
   <si>
-    <t>买入金币</t>
+    <t>买入KH</t>
   </si>
   <si>
     <t>Buy gold COINS</t>
@@ -1581,7 +1581,7 @@
     <t>CN_270</t>
   </si>
   <si>
-    <t>卖出金币</t>
+    <t>卖出KH</t>
   </si>
   <si>
     <t>Sell gold</t>
@@ -3756,7 +3756,16 @@
     <t>CN_543</t>
   </si>
   <si>
+    <t>提现失败</t>
+  </si>
+  <si>
+    <t>Withdraw Faild</t>
+  </si>
+  <si>
     <t>CN_544</t>
+  </si>
+  <si>
+    <t>认证CD时间未到，请稍后再试</t>
   </si>
   <si>
     <t>CN_545</t>
@@ -3827,16 +3836,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3850,7 +3859,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3864,44 +3910,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3917,10 +3927,40 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3934,38 +3974,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3998,6 +4007,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4010,13 +4043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4028,7 +4055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4040,13 +4067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4070,19 +4091,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4100,85 +4187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4207,37 +4216,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4266,32 +4270,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4304,6 +4293,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4312,10 +4321,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4324,16 +4333,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4342,115 +4351,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4868,8 +4877,8 @@
   <sheetPr/>
   <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -9810,54 +9819,66 @@
         <v>435</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="449" spans="1:1">
+      <c r="B448" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>1183</v>
+        <v>1185</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C449" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
     </row>
   </sheetData>

--- a/base/z中文配置_client.xlsx
+++ b/base/z中文配置_client.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1205">
   <si>
     <t>键</t>
   </si>
@@ -1608,6 +1608,9 @@
     <t>CN_273</t>
   </si>
   <si>
+    <t>充值成功</t>
+  </si>
+  <si>
     <t>top up</t>
   </si>
   <si>
@@ -3753,6 +3756,9 @@
     <t>CN_542</t>
   </si>
   <si>
+    <t>买单不能低于当天市场价，不能高于当天价格{0}％</t>
+  </si>
+  <si>
     <t>CN_543</t>
   </si>
   <si>
@@ -3771,25 +3777,57 @@
     <t>CN_545</t>
   </si>
   <si>
+    <t>提现成功</t>
+  </si>
+  <si>
+    <t>Withdraw successfully</t>
+  </si>
+  <si>
     <t>CN_546</t>
   </si>
   <si>
+    <t>幸运抽奖</t>
+  </si>
+  <si>
     <t>CN_547</t>
   </si>
   <si>
+    <t>直推排名奖励</t>
+  </si>
+  <si>
     <t>CN_548</t>
   </si>
   <si>
+    <t>团队排名奖励</t>
+  </si>
+  <si>
     <t>CN_549</t>
   </si>
   <si>
+    <t>活动买鱼</t>
+  </si>
+  <si>
     <t>CN_550</t>
   </si>
   <si>
     <t>CN_551</t>
   </si>
   <si>
+    <t>限时活动</t>
+  </si>
+  <si>
     <t>CN_552</t>
+  </si>
+  <si>
+    <t>深海部落活动说明；
+限时限量购买活动开启后，全网限量300只动物抢购名额。
+在深海部落领养一只海豚，则获得在海洋星球购买两只高级动物的名额，每个玩家最多限购6只抢购名额。
+特别提醒，全网限量300只，即使有了名额也要抢先购买，活动数量售完就算有购买名额也买不了，则会失效。
+海洋星球活动说明；
+每位玩家直推5人免费获得一次抽奖机会，团队增加50人免费获得一次抽奖机会，无上限次数推广直推，团队分别可累计次数。
+全网额外增加排行榜奖励。
+全网推广直推最多前10名奖励每位玩家1000KH。
+全网推广团队最多前10名奖励每位玩家1000KH。</t>
   </si>
 </sst>
 </file>
@@ -3797,10 +3835,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3837,29 +3875,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3868,67 +3884,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3949,18 +3904,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3972,9 +3928,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4007,25 +4045,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4055,25 +4093,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4103,13 +4165,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4128,24 +4202,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4173,24 +4229,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4212,21 +4250,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4256,6 +4279,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4266,6 +4304,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4293,26 +4351,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4321,10 +4359,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4333,133 +4371,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4877,8 +4915,8 @@
   <sheetPr/>
   <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="B457" sqref="B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -6854,326 +6892,326 @@
         <v>511</v>
       </c>
       <c r="B178" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="C178" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B179" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C179" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B180" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C180" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B181" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C181" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B182" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C182" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B183" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C183" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B184" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C184" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B185" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B186" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C186" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B187" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C187" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B188" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C188" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B189" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C189" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B190" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C190" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
+        <v>548</v>
+      </c>
+      <c r="B191" t="s">
+        <v>546</v>
+      </c>
+      <c r="C191" t="s">
         <v>547</v>
-      </c>
-      <c r="B191" t="s">
-        <v>545</v>
-      </c>
-      <c r="C191" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B192" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C192" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B193" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C193" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B194" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C194" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B195" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C195" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B196" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C196" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B197" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C197" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B198" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C198" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B199" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C199" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B200" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C200" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B201" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C201" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B202" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C202" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B203" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C203" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B204" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C204" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B205" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C205" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B206" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C206" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B207" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C207" t="s">
         <v>57</v>
@@ -7181,538 +7219,538 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B208" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C208" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B209" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C209" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B210" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C210" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B211" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C211" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B212" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C212" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B213" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B229" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C229" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B230" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C230" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B231" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C231" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B232" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C232" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B233" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C233" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B234" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C234" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B235" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C235" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B236" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C236" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B237" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C237" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B238" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C238" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B239" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C239" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B240" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C240" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B241" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C241" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B242" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C242" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B243" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C243" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B244" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C244" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B245" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C245" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B246" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C246" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B247" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C247" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B248" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C248" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B249" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C249" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B250" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C250" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B251" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C251" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B252" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C252" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B253" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C253" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B254" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C254" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B255" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C255" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B256" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C256" t="s">
         <v>78</v>
@@ -7720,912 +7758,912 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B257" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C257" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B258" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C258" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B259" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C259" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B260" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C260" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B261" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C261" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B262" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C262" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B263" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C263" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B264" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C264" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B265" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C265" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B266" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C266" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B267" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C267" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B268" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C268" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B269" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C269" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B270" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C270" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B271" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C271" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B272" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C272" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B273" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C273" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B274" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C274" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B275" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C275" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B276" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C276" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B277" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C277" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B278" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C278" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B279" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C279" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B280" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C280" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B281" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C281" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B282" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C282" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B283" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C283" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B284" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C284" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B285" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C285" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B286" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C286" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B287" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C287" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B288" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C288" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B289" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C289" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B290" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B291" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C291" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B292" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C292" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B293" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C293" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B294" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C294" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B295" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C295" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B296" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C296" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B297" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C297" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B298" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C298" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B299" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C299" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B300" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C300" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B301" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C301" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B302" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C302" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B303" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C303" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B304" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C304" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B305" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C305" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B306" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C306" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B307" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C307" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B308" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C308" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B309" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C309" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B310" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C310" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B311" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C311" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B312" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C312" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B313" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C313" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B314" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C314" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B315" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C315" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B316" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C316" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B317" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C317" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="318" ht="409.5" spans="1:3">
       <c r="A318" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B319" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C319" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="320" ht="43.2" spans="1:3">
       <c r="A320" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="321" ht="72" spans="1:3">
       <c r="A321" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C322" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="323" ht="72" spans="1:3">
       <c r="A323" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="324" ht="28.8" spans="1:3">
       <c r="A324" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C324" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="325" ht="43.2" spans="1:3">
       <c r="A325" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C326" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="327" ht="403.2" spans="1:3">
       <c r="A327" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B328" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C328" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B330" s="16" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B331" s="16" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B332" s="16" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C332" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="333" ht="15" spans="1:3">
       <c r="A333" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B333" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C333" s="17" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="335" ht="15" spans="1:3">
       <c r="A335" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C335" s="17" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="336" ht="15" spans="1:3">
       <c r="A336" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C336" s="17" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="337" ht="15" spans="1:3">
       <c r="A337" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C337" s="17" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="338" ht="15" spans="1:3">
       <c r="A338" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C338" s="17" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="339" ht="15" spans="1:3">
       <c r="A339" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C339" s="17" t="s">
         <v>69</v>
@@ -8633,216 +8671,216 @@
     </row>
     <row r="340" ht="15" spans="1:3">
       <c r="A340" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B340" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C340" s="17" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="341" ht="72" spans="1:3">
       <c r="A341" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C341" s="18" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="342" ht="15" spans="1:3">
       <c r="A342" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B342" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C342" s="17" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="343" ht="15" spans="1:3">
       <c r="A343" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B343" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C343" s="19" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="344" ht="15" spans="1:3">
       <c r="A344" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B344" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C344" s="17" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="345" ht="15" spans="1:3">
       <c r="A345" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B345" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C345" s="17" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="346" ht="15" spans="1:3">
       <c r="A346" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B346" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C346" s="17" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="347" ht="15" spans="1:3">
       <c r="A347" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B347" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C347" s="17" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="348" ht="15" spans="1:3">
       <c r="A348" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B348" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C348" s="17" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="349" ht="15" spans="1:3">
       <c r="A349" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B349" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C349" s="17" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="350" ht="15" spans="1:3">
       <c r="A350" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B350" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C350" s="17" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="351" ht="15" spans="1:3">
       <c r="A351" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B351" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C351" s="17" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="352" ht="15" spans="1:3">
       <c r="A352" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B352" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C352" s="17" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="353" ht="15" spans="1:3">
       <c r="A353" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B353" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C353" s="17" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B354" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C354" s="20" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B355" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C355" s="20" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B356" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C356" s="20" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B357" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C357" s="20" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B358" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C358" s="20" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B359" t="s">
         <v>368</v>
@@ -8853,7 +8891,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B360" t="s">
         <v>371</v>
@@ -8864,7 +8902,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B361" t="s">
         <v>377</v>
@@ -8875,7 +8913,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B362" t="s">
         <v>374</v>
@@ -8886,7 +8924,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B363" t="s">
         <v>201</v>
@@ -8897,7 +8935,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B364" t="s">
         <v>383</v>
@@ -8908,436 +8946,436 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B365" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C365" s="20" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B366" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C366" s="20" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B367" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C367" s="20" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B368" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C368" s="20" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B369" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C369" s="20" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B370" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C370" s="20" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B371" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C371" s="20" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B372" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C372" s="20" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B373" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C373" s="20" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B374" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C374" s="20" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B375" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C375" s="20" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B376" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C376" s="20" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B377" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C377" s="20" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B378" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C378" s="20" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B379" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C379" s="20" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B380" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C380" s="20" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B381" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C381" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B382" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C382" s="20" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B383" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C383" s="20" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B384" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C384" s="20" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B385" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C385" s="20" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B386" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C386" s="20" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B387" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C387" s="20" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B388" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C388" s="20" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B389" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C389" s="20" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B390" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C390" s="20" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B391" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C391" s="20" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B392" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C392" s="20" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B393" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C393" s="20" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B394" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C394" s="20" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B395" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C395" s="20" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B396" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C396" s="20" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B397" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C397" s="20" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B398" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C398" s="20" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B399" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C399" s="20" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B400" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C400" s="20" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B401" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C401" s="20" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B402" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C402" s="20" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B403" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C403" s="20" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B404" t="s">
         <v>95</v>
@@ -9348,7 +9386,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B405" t="s">
         <v>98</v>
@@ -9359,7 +9397,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B406" t="s">
         <v>101</v>
@@ -9370,7 +9408,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B407" t="s">
         <v>104</v>
@@ -9381,7 +9419,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B408" t="s">
         <v>107</v>
@@ -9392,7 +9430,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B409" t="s">
         <v>110</v>
@@ -9403,7 +9441,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B410" t="s">
         <v>110</v>
@@ -9414,7 +9452,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B411" t="s">
         <v>114</v>
@@ -9425,7 +9463,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B412" t="s">
         <v>117</v>
@@ -9436,7 +9474,7 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B413" t="s">
         <v>120</v>
@@ -9447,7 +9485,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B414" t="s">
         <v>123</v>
@@ -9458,7 +9496,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B415" t="s">
         <v>126</v>
@@ -9469,7 +9507,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B416" t="s">
         <v>129</v>
@@ -9480,7 +9518,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B417" t="s">
         <v>132</v>
@@ -9491,7 +9529,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B418" t="s">
         <v>135</v>
@@ -9502,7 +9540,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B419" t="s">
         <v>138</v>
@@ -9513,7 +9551,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B420" t="s">
         <v>141</v>
@@ -9524,7 +9562,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B421" t="s">
         <v>144</v>
@@ -9535,7 +9573,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B422" t="s">
         <v>147</v>
@@ -9546,7 +9584,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B423" t="s">
         <v>150</v>
@@ -9557,7 +9595,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B424" t="s">
         <v>153</v>
@@ -9568,7 +9606,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B425" t="s">
         <v>156</v>
@@ -9579,7 +9617,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B426" t="s">
         <v>159</v>
@@ -9590,7 +9628,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B427" t="s">
         <v>162</v>
@@ -9601,7 +9639,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B428" t="s">
         <v>165</v>
@@ -9612,7 +9650,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B429" t="s">
         <v>168</v>
@@ -9623,7 +9661,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B430" t="s">
         <v>171</v>
@@ -9634,7 +9672,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B431" t="s">
         <v>174</v>
@@ -9645,7 +9683,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B432" t="s">
         <v>177</v>
@@ -9656,7 +9694,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B433" t="s">
         <v>180</v>
@@ -9667,7 +9705,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B434" t="s">
         <v>183</v>
@@ -9678,7 +9716,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B435" t="s">
         <v>186</v>
@@ -9689,7 +9727,7 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B436" t="s">
         <v>189</v>
@@ -9700,7 +9738,7 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B437" t="s">
         <v>192</v>
@@ -9711,7 +9749,7 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B438" t="s">
         <v>195</v>
@@ -9722,7 +9760,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B439" t="s">
         <v>198</v>
@@ -9733,7 +9771,7 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B440" t="s">
         <v>201</v>
@@ -9744,7 +9782,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B441" t="s">
         <v>204</v>
@@ -9755,7 +9793,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B442" t="s">
         <v>207</v>
@@ -9766,43 +9804,43 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B443" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C443" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B444" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C444" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B445" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C445" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B446" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C446" t="s">
         <v>435</v>
@@ -9810,10 +9848,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B447" t="s">
-        <v>434</v>
+        <v>1183</v>
       </c>
       <c r="C447" t="s">
         <v>435</v>
@@ -9821,64 +9859,91 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B448" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C448" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B449" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C449" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
+        <v>1189</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
+        <v>1192</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
+        <v>1194</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
+        <v>1196</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
+        <v>1198</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
+        <v>1200</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1">
+        <v>1201</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="457" ht="158.4" spans="1:2">
       <c r="A457" t="s">
-        <v>1194</v>
+        <v>1203</v>
+      </c>
+      <c r="B457" s="9" t="s">
+        <v>1204</v>
       </c>
     </row>
   </sheetData>

--- a/base/z中文配置_client.xlsx
+++ b/base/z中文配置_client.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372"/>
+    <workbookView windowWidth="21000" windowHeight="8507"/>
   </bookViews>
   <sheets>
     <sheet name="中文配置_ClientCn" sheetId="1" r:id="rId1"/>
@@ -3372,7 +3372,7 @@
     <t>CN_471</t>
   </si>
   <si>
-    <t>排队三天仍未领到，排名将自动置顶</t>
+    <t>排队1-3天仍未领到，系统将随机序号自动领养海豚</t>
   </si>
   <si>
     <t>If you haven't received your ticket for three days, the ranking will automatically be placed at the top</t>
@@ -4915,8 +4915,8 @@
   <sheetPr/>
   <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="B457" sqref="B457"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
